--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value366.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value366.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.819717807308931</v>
+        <v>1.028101563453674</v>
       </c>
       <c r="B1">
-        <v>1.764359542526506</v>
+        <v>3.279316663742065</v>
       </c>
       <c r="C1">
-        <v>2.946567551392487</v>
+        <v>3.712397813796997</v>
       </c>
       <c r="D1">
-        <v>2.665949566832105</v>
+        <v>1.993691205978394</v>
       </c>
       <c r="E1">
-        <v>1.016467369294626</v>
+        <v>1.176284432411194</v>
       </c>
     </row>
   </sheetData>
